--- a/medicine/Enfance/Guillemette_Resplandy/Guillemette_Resplandy.xlsx
+++ b/medicine/Enfance/Guillemette_Resplandy/Guillemette_Resplandy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillemette Resplandy-Taï est une pharmacienne et écrivaine française.
 Dans le cadre de son activité professionnelle, elle a étudié les propriétés du millepertuis qui lui a fourni la trame de son roman La Malédiction de l'herbe à la feuille percée (qui a reçu le Prix du Roman Jeunesse 2003).
@@ -515,10 +527,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Roman
-Cinéma Solo, Delphine Montalant, 2005
-Pour la jeunesse
-Maniguette a disparu, Le Patio, 2001
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cinéma Solo, Delphine Montalant, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Guillemette_Resplandy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillemette_Resplandy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Maniguette a disparu, Le Patio, 2001
 Théo et la maison dans les arbres, L'Harmatton, 2003  (ISBN 2-7475-4442-7)
 La malédiction de l'herbe à la feuille percée, Sol'Air, 2004
 Thomas l'aristoloche et l'empoisonneur fou, Le Pommier, 2006  (ISBN 2746501619)
